--- a/王天佑 中国银行/王天佑中国银行标注文件合并部分删除.xlsx
+++ b/王天佑 中国银行/王天佑中国银行标注文件合并部分删除.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guhhhhaa/Documents/GitHub/houbank-weiquan/王天佑 中国银行/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3854DF-DCED-104C-80FB-D4C7E02609A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852B695F-0CB2-624A-98B0-C5C122A1D9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="245">
   <si>
     <t>列1</t>
   </si>
@@ -7986,16 +7986,97 @@
     <t>按照年化10%365天折算日滚动复利计算得到的全部本息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>罚息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天万分之五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单日为消费后下个月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款日为为消费后下个月20日，不还款视为逾期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在账单日判断是否逾期，最低还款额为5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果逾期，将最低还款额的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="204"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计入违约金，在下次出账单时收取</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违约后规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低还款额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违约金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期，产生罚息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期，计算罚息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未逾期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="\-"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -8068,6 +8149,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -8165,7 +8253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8302,6 +8390,36 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22434,31 +22552,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD3C82C-8230-EC43-84E4-A505ACF11B24}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="B214" zoomScale="133" workbookViewId="0">
+      <selection activeCell="H217" sqref="H217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="39" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="39"/>
+    <col min="4" max="5" width="12.5" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1" s="40">
         <v>43152</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="51" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="35">
         <v>-20000</v>
       </c>
-      <c r="D1" s="14">
+      <c r="D1" s="49">
         <v>7515.61</v>
       </c>
       <c r="E1" s="38" t="str">
@@ -22470,17 +22589,17 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="40">
         <v>43152</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="35">
         <v>-5500</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="49">
         <v>2015.61</v>
       </c>
       <c r="E2" s="38" t="str">
@@ -22492,17 +22611,17 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="40">
         <v>43152</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="51" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="35">
         <v>-2015.61</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="49">
         <v>0</v>
       </c>
       <c r="E3" s="38" t="str">
@@ -22514,17 +22633,17 @@
         <v>27515.61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A4" s="41">
         <v>43153</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="52" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="36">
         <v>0.61</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="50">
         <v>0.61</v>
       </c>
       <c r="E4" s="38" t="str">
@@ -22536,17 +22655,17 @@
         <v>27522.18591826631</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
         <v>43174</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="51" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="35">
         <v>-1000</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="49">
         <v>400.33</v>
       </c>
       <c r="E5" s="38" t="str">
@@ -22558,17 +22677,17 @@
         <v>28673.521111637034</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="40">
         <v>43183</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="51" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="35">
         <v>-100</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="49">
         <v>92.38</v>
       </c>
       <c r="E6" s="38" t="str">
@@ -22580,17 +22699,17 @@
         <v>28840.986400187252</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="40">
         <v>43183</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="51" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="35">
         <v>-100</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="49">
         <v>192.38</v>
       </c>
       <c r="E7" s="38" t="str">
@@ -22602,17 +22721,17 @@
         <v>28940.986400187252</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A8" s="40">
         <v>43183</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="51" t="s">
         <v>82</v>
       </c>
       <c r="C8" s="35">
         <v>-100</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="49">
         <v>292.38</v>
       </c>
       <c r="E8" s="38" t="str">
@@ -22624,17 +22743,17 @@
         <v>29040.986400187252</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A9" s="40">
         <v>43183</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="51" t="s">
         <v>83</v>
       </c>
       <c r="C9" s="35">
         <v>-100</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="49">
         <v>392.38</v>
       </c>
       <c r="E9" s="38" t="str">
@@ -22646,17 +22765,17 @@
         <v>29140.986400187252</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A10" s="40">
         <v>43184</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="51" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="35">
         <v>-90</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="49">
         <v>2.38</v>
       </c>
       <c r="E10" s="38" t="str">
@@ -22668,17 +22787,17 @@
         <v>29238.596798302045</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A11" s="41">
         <v>43185</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="52" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="36">
         <v>1021.41</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="50">
         <v>3051.21</v>
       </c>
       <c r="E11" s="38" t="str">
@@ -22690,17 +22809,17 @@
         <v>28224.822688141096</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A12" s="41">
         <v>43185</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="52" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="36">
         <v>2027.42</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="50">
         <v>2029.8</v>
       </c>
       <c r="E12" s="38" t="str">
@@ -22712,17 +22831,17 @@
         <v>26197.402688141097</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="40">
         <v>43186</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="51" t="s">
         <v>96</v>
       </c>
       <c r="C13" s="35">
         <v>-1000</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="49">
         <v>951.21</v>
       </c>
       <c r="E13" s="38" t="str">
@@ -22734,17 +22853,17 @@
         <v>27204.244346185627</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A14" s="40">
         <v>43186</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="51" t="s">
         <v>99</v>
       </c>
       <c r="C14" s="35">
         <v>-1000</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="49">
         <v>1951.21</v>
       </c>
       <c r="E14" s="38" t="str">
@@ -22756,17 +22875,17 @@
         <v>28204.244346185627</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
         <v>43186</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="51" t="s">
         <v>102</v>
       </c>
       <c r="C15" s="35">
         <v>-100</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="49">
         <v>290.85000000000002</v>
       </c>
       <c r="E15" s="38" t="str">
@@ -22778,17 +22897,17 @@
         <v>28304.244346185627</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A16" s="40">
         <v>43186</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="51" t="s">
         <v>106</v>
       </c>
       <c r="C16" s="35">
         <v>-100</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="49">
         <v>390.85</v>
       </c>
       <c r="E16" s="38" t="str">
@@ -22800,17 +22919,17 @@
         <v>28404.244346185627</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A17" s="40">
         <v>43186</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="51" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="35">
         <v>-100</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="49">
         <v>490.85</v>
       </c>
       <c r="E17" s="38" t="str">
@@ -22822,17 +22941,17 @@
         <v>28504.244346185627</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A18" s="40">
         <v>43186</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="51" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="35">
         <v>-100</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="49">
         <v>590.85</v>
       </c>
       <c r="E18" s="38" t="str">
@@ -22844,17 +22963,17 @@
         <v>28604.244346185627</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A19" s="40">
         <v>43186</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="51" t="s">
         <v>111</v>
       </c>
       <c r="C19" s="35">
         <v>-100</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="49">
         <v>751.21</v>
       </c>
       <c r="E19" s="38" t="str">
@@ -22866,17 +22985,17 @@
         <v>28704.244346185627</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A20" s="40">
         <v>43186</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="51" t="s">
         <v>112</v>
       </c>
       <c r="C20" s="35">
         <v>-100</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="49">
         <v>851.21</v>
       </c>
       <c r="E20" s="38" t="str">
@@ -22888,17 +23007,17 @@
         <v>28804.244346185627</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="40">
         <v>43186</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="51" t="s">
         <v>113</v>
       </c>
       <c r="C21" s="35">
         <v>-100</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="49">
         <v>2951.21</v>
       </c>
       <c r="E21" s="38" t="str">
@@ -22910,17 +23029,17 @@
         <v>28904.244346185627</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A22" s="40">
         <v>43187</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="51" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="35">
         <v>-100</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="49">
         <v>260.85000000000002</v>
       </c>
       <c r="E22" s="38" t="str">
@@ -22932,17 +23051,17 @@
         <v>29011.792917248422</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="40">
         <v>43189</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="51" t="s">
         <v>119</v>
       </c>
       <c r="C23" s="35">
         <v>-200</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="49">
         <v>778.85</v>
       </c>
       <c r="E23" s="38" t="str">
@@ -22954,17 +23073,17 @@
         <v>29226.948212390766</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="40">
         <v>43190</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="51" t="s">
         <v>121</v>
       </c>
       <c r="C24" s="35">
         <v>-1812.33</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="49">
         <v>0</v>
       </c>
       <c r="E24" s="38" t="str">
@@ -22976,17 +23095,17 @@
         <v>31046.911060109858</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
         <v>43190</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C25" s="35">
         <v>-200</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="49">
         <v>513.33000000000004</v>
       </c>
       <c r="E25" s="38" t="str">
@@ -22998,17 +23117,17 @@
         <v>31246.911060109858</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A26" s="41">
         <v>43199</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="52" t="s">
         <v>125</v>
       </c>
       <c r="C26" s="36">
         <v>212.61</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="50">
         <v>271.74</v>
       </c>
       <c r="E26" s="38" t="str">
@@ -23020,17 +23139,17 @@
         <v>31107.82122049636</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A27" s="41">
         <v>43206</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="52" t="s">
         <v>129</v>
       </c>
       <c r="C27" s="36">
         <v>902.6</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="50">
         <v>937.14</v>
       </c>
       <c r="E27" s="38" t="str">
@@ -23042,17 +23161,17 @@
         <v>30262.13416239413</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A28" s="41">
         <v>43223</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="52" t="s">
         <v>131</v>
       </c>
       <c r="C28" s="36">
         <v>432.94</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="50">
         <v>2290.13</v>
       </c>
       <c r="E28" s="38" t="str">
@@ -23064,17 +23183,17 @@
         <v>29963.829540368741</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A29" s="40">
         <v>43225</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="51" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="35">
         <v>-1500</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="49">
         <v>623.83000000000004</v>
       </c>
       <c r="E29" s="38" t="str">
@@ -23086,17 +23205,17 @@
         <v>31479.482164168123</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A30" s="41">
         <v>43237</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="52" t="s">
         <v>135</v>
       </c>
       <c r="C30" s="36">
         <v>403.2</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="50">
         <v>438.18</v>
       </c>
       <c r="E30" s="38" t="str">
@@ -23108,17 +23227,17 @@
         <v>31175.077366601352</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A31" s="41">
         <v>43245</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="52" t="s">
         <v>137</v>
       </c>
       <c r="C31" s="36">
         <v>231.72</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="50">
         <v>431</v>
       </c>
       <c r="E31" s="38" t="str">
@@ -23130,17 +23249,17 @@
         <v>31008.549868565256</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A32" s="41">
         <v>43290</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="52" t="s">
         <v>139</v>
       </c>
       <c r="C32" s="36">
         <v>231.72</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="50">
         <v>1927.24</v>
       </c>
       <c r="E32" s="38" t="str">
@@ -23152,17 +23271,17 @@
         <v>31143.347184344748</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A33" s="41">
         <v>43297</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="52" t="s">
         <v>142</v>
       </c>
       <c r="C33" s="36">
         <v>102.36</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="50">
         <v>102.36</v>
       </c>
       <c r="E33" s="38" t="str">
@@ -23174,17 +23293,17 @@
         <v>31097.965122344365</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A34" s="41">
         <v>43304</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="52" t="s">
         <v>144</v>
       </c>
       <c r="C34" s="36">
         <v>229.5</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="50">
         <v>754.31</v>
       </c>
       <c r="E34" s="38" t="str">
@@ -23196,17 +23315,17 @@
         <v>30925.360032135755</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A35" s="41">
         <v>43319</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="52" t="s">
         <v>148</v>
       </c>
       <c r="C35" s="36">
         <v>2.2200000000000002</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="50">
         <v>1088.07</v>
       </c>
       <c r="E35" s="38" t="str">
@@ -23218,17 +23337,17 @@
         <v>31044.507770764238</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A36" s="41">
         <v>43336</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="52" t="s">
         <v>152</v>
       </c>
       <c r="C36" s="36">
         <v>231.72</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="50">
         <v>271.95999999999998</v>
       </c>
       <c r="E36" s="38" t="str">
@@ -23240,17 +23359,17 @@
         <v>30950.903906768501</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A37" s="41">
         <v>43369</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="52" t="s">
         <v>156</v>
       </c>
       <c r="C37" s="36">
         <v>231.72</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="50">
         <v>231.72</v>
       </c>
       <c r="E37" s="38" t="str">
@@ -23262,17 +23381,17 @@
         <v>30987.04289312979</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A38" s="41">
         <v>43409</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="52" t="s">
         <v>158</v>
       </c>
       <c r="C38" s="36">
         <v>231.72</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="50">
         <v>231.72</v>
       </c>
       <c r="E38" s="38" t="str">
@@ -23284,17 +23403,17 @@
         <v>31080.677241556252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A39" s="41">
         <v>43434</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="52" t="s">
         <v>160</v>
       </c>
       <c r="C39" s="36">
         <v>231.72</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="50">
         <v>231.72</v>
       </c>
       <c r="E39" s="38" t="str">
@@ -23306,17 +23425,17 @@
         <v>31052.518550753583</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A40" s="42">
         <v>43459</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="52" t="s">
         <v>162</v>
       </c>
       <c r="C40" s="36">
         <v>231.72</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="50">
         <v>232.93</v>
       </c>
       <c r="E40" s="38" t="str">
@@ -23328,17 +23447,17 @@
         <v>31024.175436042755</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A41" s="40">
         <v>43466</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="51" t="s">
         <v>167</v>
       </c>
       <c r="C41" s="35">
         <v>-800</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="49">
         <v>0</v>
       </c>
       <c r="E41" s="38" t="str">
@@ -23350,17 +23469,17 @@
         <v>31880.935344796966</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A42" s="40">
         <v>43489</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="51" t="s">
         <v>171</v>
       </c>
       <c r="C42" s="35">
         <v>-631.32000000000005</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="49">
         <v>0</v>
       </c>
       <c r="E42" s="38" t="str">
@@ -23372,17 +23491,17 @@
         <v>32704.303491611972</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="20" x14ac:dyDescent="0.15">
       <c r="A43" s="41">
         <v>43489</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="52" t="s">
         <v>175</v>
       </c>
       <c r="C43" s="36">
         <v>231.72</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="50">
         <v>231.72</v>
       </c>
       <c r="E43" s="38" t="str">
@@ -23394,17 +23513,17 @@
         <v>32472.583491611971</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A44" s="40">
         <v>43491</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="51" t="s">
         <v>180</v>
       </c>
       <c r="C44" s="35">
         <v>-115</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="49">
         <v>50</v>
       </c>
       <c r="E44" s="38" t="str">
@@ -23416,17 +23535,17 @@
         <v>32604.546648223957</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A45" s="40">
         <v>43497</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="51" t="s">
         <v>184</v>
       </c>
       <c r="C45" s="35">
         <v>-2000</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="49">
         <v>9</v>
       </c>
       <c r="E45" s="38" t="str">
@@ -23438,17 +23557,17 @@
         <v>34655.669620889792</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A46" s="40">
         <v>43502</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="51" t="s">
         <v>188</v>
       </c>
       <c r="C46" s="35">
         <v>-2000</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="49">
         <v>9</v>
       </c>
       <c r="E46" s="38" t="str">
@@ -23460,17 +23579,17 @@
         <v>36700.946268780448</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A47" s="40">
         <v>43503</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="51" t="s">
         <v>192</v>
       </c>
       <c r="C47" s="35">
         <v>-2000</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="49">
         <v>9</v>
       </c>
       <c r="E47" s="38" t="str">
@@ -23482,17 +23601,17 @@
         <v>38710.531009957682</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A48" s="40">
         <v>43526</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="51" t="s">
         <v>196</v>
       </c>
       <c r="C48" s="35">
         <v>-3000</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="49">
         <v>22</v>
       </c>
       <c r="E48" s="38" t="str">
@@ -23504,17 +23623,17 @@
         <v>41943.720082432636</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A49" s="40">
         <v>43530</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="51" t="s">
         <v>200</v>
       </c>
       <c r="C49" s="35">
         <v>-390.33</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="49">
         <v>0</v>
       </c>
       <c r="E49" s="38" t="str">
@@ -23526,17 +23645,17 @@
         <v>42377.882981060684</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A50" s="40">
         <v>43555</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="51" t="s">
         <v>202</v>
       </c>
       <c r="C50" s="35">
         <v>-3000</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="49">
         <v>0</v>
       </c>
       <c r="E50" s="38" t="str">
@@ -23548,17 +23667,17 @@
         <v>45655.434762625533</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A51" s="40">
         <v>43555</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="51" t="s">
         <v>203</v>
       </c>
       <c r="C51" s="35">
         <v>-969.36</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="49">
         <v>0</v>
       </c>
       <c r="E51" s="38" t="str">
@@ -23570,17 +23689,17 @@
         <v>46624.794762625534</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A52" s="40">
         <v>43561</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="51" t="s">
         <v>207</v>
       </c>
       <c r="C52" s="35">
         <v>-120.28</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="49">
         <v>0</v>
       </c>
       <c r="E52" s="38" t="str">
@@ -23592,17 +23711,17 @@
         <v>46818.181073040359</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A53" s="40">
         <v>43569</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="51" t="s">
         <v>209</v>
       </c>
       <c r="C53" s="35">
         <v>-1850.63</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="49">
         <v>0</v>
       </c>
       <c r="E53" s="38" t="str">
@@ -23614,17 +23733,17 @@
         <v>48766.716022101384</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A54" s="40">
         <v>43571</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="51" t="s">
         <v>213</v>
       </c>
       <c r="C54" s="35">
         <v>-3713.2</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="49">
         <v>0</v>
       </c>
       <c r="E54" s="38" t="str">
@@ -23636,17 +23755,17 @@
         <v>52505.39097211726</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A55" s="40">
         <v>43580</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="51" t="s">
         <v>215</v>
       </c>
       <c r="C55" s="35">
         <v>-1591.02</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="49">
         <v>0</v>
       </c>
       <c r="E55" s="38" t="str">
@@ -23658,17 +23777,17 @@
         <v>54219.949735932983</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A56" s="40">
         <v>43588</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="51" t="s">
         <v>217</v>
       </c>
       <c r="C56" s="35">
         <v>-3023.83</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="49">
         <v>0</v>
       </c>
       <c r="E56" s="38" t="str">
@@ -23680,17 +23799,17 @@
         <v>57357.163068974194</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A57" s="40">
         <v>43594</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="51" t="s">
         <v>219</v>
       </c>
       <c r="C57" s="35">
         <v>-3707.69</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="49">
         <v>0</v>
       </c>
       <c r="E57" s="38" t="str">
@@ -23702,17 +23821,17 @@
         <v>61154.787418051383</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A58" s="40">
         <v>43595</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="51" t="s">
         <v>223</v>
       </c>
       <c r="C58" s="35">
         <v>-311.74</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="49">
         <v>0</v>
       </c>
       <c r="E58" s="38" t="str">
@@ -23724,17 +23843,17 @@
         <v>61482.498472444859</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A59" s="40">
         <v>43648</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="51" t="s">
         <v>225</v>
       </c>
       <c r="C59" s="35">
         <v>-5000</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="49">
         <v>4147.84</v>
       </c>
       <c r="E59" s="38" t="str">
@@ -23746,17 +23865,17 @@
         <v>67339.304454350437</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="40" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A60" s="40">
         <v>43648</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="51" t="s">
         <v>229</v>
       </c>
       <c r="C60" s="35">
         <v>-4147.84</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="49">
         <v>0</v>
       </c>
       <c r="E60" s="38" t="str">
@@ -23774,16 +23893,3271 @@
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F62" s="45"/>
     </row>
-    <row r="63" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="72" x14ac:dyDescent="0.15">
       <c r="A63" s="40">
         <v>43691</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="48" t="s">
         <v>231</v>
       </c>
       <c r="F63" s="45">
         <f>F60*POWER(1+10/100,(A63-A60)/365)-C63</f>
         <v>72294.34846343119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18" x14ac:dyDescent="0.15">
+      <c r="A64" s="46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A65" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A66" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" s="48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="72" x14ac:dyDescent="0.15">
+      <c r="A67" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="D68" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="E68" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="F68" s="47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A69" s="43">
+        <v>43709</v>
+      </c>
+      <c r="F69" s="37">
+        <f>F63</f>
+        <v>72294.34846343119</v>
+      </c>
+      <c r="G69" s="44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A70" s="43">
+        <v>43728</v>
+      </c>
+      <c r="D70" s="38">
+        <f>E70*5%</f>
+        <v>180.73587115857799</v>
+      </c>
+      <c r="E70" s="39">
+        <f>F70*5%</f>
+        <v>3614.7174231715599</v>
+      </c>
+      <c r="F70" s="37">
+        <f>F69</f>
+        <v>72294.34846343119</v>
+      </c>
+      <c r="G70" s="44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A71" s="43">
+        <v>43739</v>
+      </c>
+      <c r="F71" s="37">
+        <f>F70*POWER(1+0.0005,(A71-A70))+D70</f>
+        <v>72873.698790993047</v>
+      </c>
+      <c r="G71" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="43">
+        <v>43758</v>
+      </c>
+      <c r="D72" s="38">
+        <f>E72*5%</f>
+        <v>182.18424697748264</v>
+      </c>
+      <c r="E72" s="39">
+        <f>F72*5%</f>
+        <v>3643.6849395496524</v>
+      </c>
+      <c r="F72" s="37">
+        <f>F71</f>
+        <v>72873.698790993047</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A73" s="43">
+        <v>43770</v>
+      </c>
+      <c r="F73" s="37">
+        <f>F72*POWER(1+0.0005,(A73-A71))+D72</f>
+        <v>74193.938026323303</v>
+      </c>
+      <c r="G73" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="43">
+        <v>43789</v>
+      </c>
+      <c r="D74" s="38">
+        <f>E74*5%</f>
+        <v>185.48484506580826</v>
+      </c>
+      <c r="E74" s="39">
+        <f>F74*5%</f>
+        <v>3709.6969013161652</v>
+      </c>
+      <c r="F74" s="37">
+        <f>F73</f>
+        <v>74193.938026323303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A75" s="43">
+        <v>43800</v>
+      </c>
+      <c r="F75" s="37">
+        <f t="shared" ref="F75" si="2">F74*POWER(1+0.0005,(A75-A73))+D74</f>
+        <v>75500.4383133792</v>
+      </c>
+      <c r="G75" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="43">
+        <v>43819</v>
+      </c>
+      <c r="D76" s="38">
+        <f t="shared" ref="D76:E76" si="3">E76*5%</f>
+        <v>188.75109578344802</v>
+      </c>
+      <c r="E76" s="39">
+        <f t="shared" si="3"/>
+        <v>3775.02191566896</v>
+      </c>
+      <c r="F76" s="37">
+        <f t="shared" ref="F76:F107" si="4">F75</f>
+        <v>75500.4383133792</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A77" s="43">
+        <f>DATE(B77,C77,1)</f>
+        <v>43831</v>
+      </c>
+      <c r="B77" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C77" s="54">
+        <v>1</v>
+      </c>
+      <c r="F77" s="37">
+        <f t="shared" ref="F77" si="5">F76*POWER(1+0.0005,(A77-A75))+D76</f>
+        <v>76868.265699660769</v>
+      </c>
+      <c r="G77" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="43">
+        <f>DATE(B78,C78,20)</f>
+        <v>43850</v>
+      </c>
+      <c r="B78" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C78" s="54">
+        <v>1</v>
+      </c>
+      <c r="D78" s="38">
+        <f t="shared" ref="D78:E78" si="6">E78*5%</f>
+        <v>192.17066424915194</v>
+      </c>
+      <c r="E78" s="39">
+        <f t="shared" si="6"/>
+        <v>3843.4132849830385</v>
+      </c>
+      <c r="F78" s="37">
+        <f t="shared" ref="F78:F109" si="7">F77</f>
+        <v>76868.265699660769</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A79" s="43">
+        <f>DATE(B79,C79,1)</f>
+        <v>43862</v>
+      </c>
+      <c r="B79" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C79" s="54">
+        <v>2</v>
+      </c>
+      <c r="F79" s="37">
+        <f t="shared" ref="F79" si="8">F78*POWER(1+0.0005,(A79-A77))+D78</f>
+        <v>78260.873760074261</v>
+      </c>
+      <c r="G79" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="43">
+        <f>DATE(B80,C80,20)</f>
+        <v>43881</v>
+      </c>
+      <c r="B80" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C80" s="54">
+        <v>2</v>
+      </c>
+      <c r="D80" s="38">
+        <f t="shared" ref="D80:E80" si="9">E80*5%</f>
+        <v>195.65218440018566</v>
+      </c>
+      <c r="E80" s="39">
+        <f t="shared" si="9"/>
+        <v>3913.0436880037132</v>
+      </c>
+      <c r="F80" s="37">
+        <f t="shared" ref="F80:F111" si="10">F79</f>
+        <v>78260.873760074261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A81" s="43">
+        <f t="shared" ref="A81" si="11">DATE(B81,C81,1)</f>
+        <v>43891</v>
+      </c>
+      <c r="B81" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C81" s="54">
+        <v>3</v>
+      </c>
+      <c r="F81" s="37">
+        <f t="shared" ref="F81" si="12">F80*POWER(1+0.0005,(A81-A79))+D80</f>
+        <v>79599.287954800602</v>
+      </c>
+      <c r="G81" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="43">
+        <f t="shared" ref="A82" si="13">DATE(B82,C82,20)</f>
+        <v>43910</v>
+      </c>
+      <c r="B82" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C82" s="54">
+        <v>3</v>
+      </c>
+      <c r="D82" s="38">
+        <f t="shared" ref="D82:E82" si="14">E82*5%</f>
+        <v>198.99821988700151</v>
+      </c>
+      <c r="E82" s="39">
+        <f t="shared" si="14"/>
+        <v>3979.9643977400301</v>
+      </c>
+      <c r="F82" s="37">
+        <f t="shared" ref="F82:F113" si="15">F81</f>
+        <v>79599.287954800602</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A83" s="43">
+        <f t="shared" ref="A83" si="16">DATE(B83,C83,1)</f>
+        <v>43922</v>
+      </c>
+      <c r="B83" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C83" s="54">
+        <v>4</v>
+      </c>
+      <c r="F83" s="37">
+        <f t="shared" ref="F83" si="17">F82*POWER(1+0.0005,(A83-A81))+D82</f>
+        <v>81041.373437022165</v>
+      </c>
+      <c r="G83" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="43">
+        <f t="shared" ref="A84" si="18">DATE(B84,C84,20)</f>
+        <v>43941</v>
+      </c>
+      <c r="B84" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C84" s="54">
+        <v>4</v>
+      </c>
+      <c r="D84" s="38">
+        <f t="shared" ref="D84:E84" si="19">E84*5%</f>
+        <v>202.60343359255543</v>
+      </c>
+      <c r="E84" s="39">
+        <f t="shared" si="19"/>
+        <v>4052.0686718511083</v>
+      </c>
+      <c r="F84" s="37">
+        <f t="shared" ref="F84:F115" si="20">F83</f>
+        <v>81041.373437022165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A85" s="43">
+        <f t="shared" ref="A85" si="21">DATE(B85,C85,1)</f>
+        <v>43952</v>
+      </c>
+      <c r="B85" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C85" s="54">
+        <v>5</v>
+      </c>
+      <c r="F85" s="37">
+        <f t="shared" ref="F85" si="22">F84*POWER(1+0.0005,(A85-A83))+D84</f>
+        <v>82468.451989198598</v>
+      </c>
+      <c r="G85" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="43">
+        <f t="shared" ref="A86" si="23">DATE(B86,C86,20)</f>
+        <v>43971</v>
+      </c>
+      <c r="B86" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C86" s="54">
+        <v>5</v>
+      </c>
+      <c r="D86" s="38">
+        <f t="shared" ref="D86:E86" si="24">E86*5%</f>
+        <v>206.17112997299651</v>
+      </c>
+      <c r="E86" s="39">
+        <f t="shared" si="24"/>
+        <v>4123.4225994599301</v>
+      </c>
+      <c r="F86" s="37">
+        <f t="shared" ref="F86:F117" si="25">F85</f>
+        <v>82468.451989198598</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A87" s="43">
+        <f>DATE(B87,C87,1)</f>
+        <v>43983</v>
+      </c>
+      <c r="B87" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C87" s="54">
+        <v>6</v>
+      </c>
+      <c r="F87" s="37">
+        <f t="shared" ref="F87" si="26">F86*POWER(1+0.0005,(A87-A85))+D86</f>
+        <v>83962.517582127519</v>
+      </c>
+      <c r="G87" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="43">
+        <f>DATE(B88,C88,20)</f>
+        <v>44002</v>
+      </c>
+      <c r="B88" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C88" s="54">
+        <v>6</v>
+      </c>
+      <c r="D88" s="38">
+        <f t="shared" ref="D88:E88" si="27">E88*5%</f>
+        <v>209.90629395531883</v>
+      </c>
+      <c r="E88" s="39">
+        <f t="shared" si="27"/>
+        <v>4198.1258791063765</v>
+      </c>
+      <c r="F88" s="37">
+        <f t="shared" ref="F88:F119" si="28">F87</f>
+        <v>83962.517582127519</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A89" s="43">
+        <f>DATE(B89,C89,1)</f>
+        <v>44013</v>
+      </c>
+      <c r="B89" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C89" s="54">
+        <v>7</v>
+      </c>
+      <c r="F89" s="37">
+        <f t="shared" ref="F89" si="29">F88*POWER(1+0.0005,(A89-A87))+D88</f>
+        <v>85441.035318766153</v>
+      </c>
+      <c r="G89" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" s="43">
+        <f>DATE(B90,C90,20)</f>
+        <v>44032</v>
+      </c>
+      <c r="B90" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C90" s="54">
+        <v>7</v>
+      </c>
+      <c r="D90" s="38">
+        <f t="shared" ref="D90:E90" si="30">E90*5%</f>
+        <v>213.6025882969154</v>
+      </c>
+      <c r="E90" s="39">
+        <f t="shared" si="30"/>
+        <v>4272.0517659383077</v>
+      </c>
+      <c r="F90" s="37">
+        <f t="shared" ref="F90:F121" si="31">F89</f>
+        <v>85441.035318766153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A91" s="43">
+        <f t="shared" ref="A91" si="32">DATE(B91,C91,1)</f>
+        <v>44044</v>
+      </c>
+      <c r="B91" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C91" s="54">
+        <v>8</v>
+      </c>
+      <c r="F91" s="37">
+        <f t="shared" ref="F91" si="33">F90*POWER(1+0.0005,(A91-A89))+D90</f>
+        <v>86988.954650521191</v>
+      </c>
+      <c r="G91" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="43">
+        <f t="shared" ref="A92" si="34">DATE(B92,C92,20)</f>
+        <v>44063</v>
+      </c>
+      <c r="B92" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C92" s="54">
+        <v>8</v>
+      </c>
+      <c r="D92" s="38">
+        <f t="shared" ref="D92:E92" si="35">E92*5%</f>
+        <v>217.47238662630298</v>
+      </c>
+      <c r="E92" s="39">
+        <f t="shared" si="35"/>
+        <v>4349.4477325260596</v>
+      </c>
+      <c r="F92" s="37">
+        <f t="shared" ref="F92:F123" si="36">F91</f>
+        <v>86988.954650521191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A93" s="43">
+        <f t="shared" ref="A93" si="37">DATE(B93,C93,1)</f>
+        <v>44075</v>
+      </c>
+      <c r="B93" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C93" s="54">
+        <v>9</v>
+      </c>
+      <c r="F93" s="37">
+        <f t="shared" ref="F93" si="38">F92*POWER(1+0.0005,(A93-A91))+D92</f>
+        <v>88564.917348659641</v>
+      </c>
+      <c r="G93" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" s="43">
+        <f t="shared" ref="A94" si="39">DATE(B94,C94,20)</f>
+        <v>44094</v>
+      </c>
+      <c r="B94" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C94" s="54">
+        <v>9</v>
+      </c>
+      <c r="D94" s="38">
+        <f t="shared" ref="D94:E94" si="40">E94*5%</f>
+        <v>221.4122933716491</v>
+      </c>
+      <c r="E94" s="39">
+        <f t="shared" si="40"/>
+        <v>4428.2458674329819</v>
+      </c>
+      <c r="F94" s="37">
+        <f t="shared" ref="F94:F125" si="41">F93</f>
+        <v>88564.917348659641</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A95" s="43">
+        <f>DATE(B95,C95,1)</f>
+        <v>44105</v>
+      </c>
+      <c r="B95" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C95" s="54">
+        <v>10</v>
+      </c>
+      <c r="F95" s="37">
+        <f t="shared" ref="F95" si="42">F94*POWER(1+0.0005,(A95-A93))+D94</f>
+        <v>90124.479935808646</v>
+      </c>
+      <c r="G95" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="43">
+        <f>DATE(B96,C96,20)</f>
+        <v>44124</v>
+      </c>
+      <c r="B96" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C96" s="54">
+        <v>10</v>
+      </c>
+      <c r="D96" s="38">
+        <f t="shared" ref="D96:E96" si="43">E96*5%</f>
+        <v>225.31119983952163</v>
+      </c>
+      <c r="E96" s="39">
+        <f t="shared" si="43"/>
+        <v>4506.2239967904325</v>
+      </c>
+      <c r="F96" s="37">
+        <f t="shared" ref="F96:F127" si="44">F95</f>
+        <v>90124.479935808646</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A97" s="43">
+        <f>DATE(B97,C97,1)</f>
+        <v>44136</v>
+      </c>
+      <c r="B97" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C97" s="54">
+        <v>11</v>
+      </c>
+      <c r="F97" s="37">
+        <f t="shared" ref="F97" si="45">F96*POWER(1+0.0005,(A97-A95))+D96</f>
+        <v>91757.248361852835</v>
+      </c>
+      <c r="G97" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" s="43">
+        <f>DATE(B98,C98,20)</f>
+        <v>44155</v>
+      </c>
+      <c r="B98" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C98" s="54">
+        <v>11</v>
+      </c>
+      <c r="D98" s="38">
+        <f t="shared" ref="D98:E98" si="46">E98*5%</f>
+        <v>229.3931209046321</v>
+      </c>
+      <c r="E98" s="39">
+        <f t="shared" si="46"/>
+        <v>4587.8624180926417</v>
+      </c>
+      <c r="F98" s="37">
+        <f t="shared" ref="F98:F129" si="47">F97</f>
+        <v>91757.248361852835</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A99" s="43">
+        <f t="shared" ref="A99:A161" si="48">DATE(B99,C99,1)</f>
+        <v>44166</v>
+      </c>
+      <c r="B99" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C99" s="54">
+        <v>12</v>
+      </c>
+      <c r="F99" s="37">
+        <f t="shared" ref="F99" si="49">F98*POWER(1+0.0005,(A99-A97))+D98</f>
+        <v>93373.025533320499</v>
+      </c>
+      <c r="G99" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" s="43">
+        <f t="shared" ref="A100:A162" si="50">DATE(B100,C100,20)</f>
+        <v>44185</v>
+      </c>
+      <c r="B100" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C100" s="54">
+        <v>12</v>
+      </c>
+      <c r="D100" s="38">
+        <f t="shared" ref="D100:E100" si="51">E100*5%</f>
+        <v>233.43256383330129</v>
+      </c>
+      <c r="E100" s="39">
+        <f t="shared" si="51"/>
+        <v>4668.6512766660253</v>
+      </c>
+      <c r="F100" s="37">
+        <f t="shared" ref="F100:F131" si="52">F99</f>
+        <v>93373.025533320499</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A101" s="43">
+        <f t="shared" si="48"/>
+        <v>44197</v>
+      </c>
+      <c r="B101" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C101" s="54">
+        <v>1</v>
+      </c>
+      <c r="F101" s="37">
+        <f t="shared" ref="F101" si="53">F100*POWER(1+0.0005,(A101-A99))+D100</f>
+        <v>95064.647255227916</v>
+      </c>
+      <c r="G101" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" s="43">
+        <f t="shared" si="50"/>
+        <v>44216</v>
+      </c>
+      <c r="B102" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C102" s="54">
+        <v>1</v>
+      </c>
+      <c r="D102" s="38">
+        <f t="shared" ref="D102:E102" si="54">E102*5%</f>
+        <v>237.6616181380698</v>
+      </c>
+      <c r="E102" s="39">
+        <f t="shared" si="54"/>
+        <v>4753.232362761396</v>
+      </c>
+      <c r="F102" s="37">
+        <f t="shared" ref="F102:F133" si="55">F101</f>
+        <v>95064.647255227916</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A103" s="43">
+        <f t="shared" si="48"/>
+        <v>44228</v>
+      </c>
+      <c r="B103" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C103" s="54">
+        <v>2</v>
+      </c>
+      <c r="F103" s="37">
+        <f t="shared" ref="F103" si="56">F102*POWER(1+0.0005,(A103-A101))+D102</f>
+        <v>96786.915772970475</v>
+      </c>
+      <c r="G103" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" s="43">
+        <f t="shared" si="50"/>
+        <v>44247</v>
+      </c>
+      <c r="B104" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C104" s="54">
+        <v>2</v>
+      </c>
+      <c r="D104" s="38">
+        <f t="shared" ref="D104:E104" si="57">E104*5%</f>
+        <v>241.96728943242621</v>
+      </c>
+      <c r="E104" s="39">
+        <f t="shared" si="57"/>
+        <v>4839.3457886485239</v>
+      </c>
+      <c r="F104" s="37">
+        <f t="shared" ref="F104:F135" si="58">F103</f>
+        <v>96786.915772970475</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A105" s="43">
+        <f t="shared" si="48"/>
+        <v>44256</v>
+      </c>
+      <c r="B105" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C105" s="54">
+        <v>3</v>
+      </c>
+      <c r="F105" s="37">
+        <f t="shared" ref="F105" si="59">F104*POWER(1+0.0005,(A105-A103))+D104</f>
+        <v>98393.086005161807</v>
+      </c>
+      <c r="G105" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="43">
+        <f t="shared" si="50"/>
+        <v>44275</v>
+      </c>
+      <c r="B106" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C106" s="54">
+        <v>3</v>
+      </c>
+      <c r="D106" s="38">
+        <f t="shared" ref="D106:E106" si="60">E106*5%</f>
+        <v>245.98271501290458</v>
+      </c>
+      <c r="E106" s="39">
+        <f t="shared" si="60"/>
+        <v>4919.6543002580911</v>
+      </c>
+      <c r="F106" s="37">
+        <f t="shared" ref="F106:F137" si="61">F105</f>
+        <v>98393.086005161807</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A107" s="43">
+        <f t="shared" si="48"/>
+        <v>44287</v>
+      </c>
+      <c r="B107" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C107" s="54">
+        <v>4</v>
+      </c>
+      <c r="F107" s="37">
+        <f t="shared" ref="F107" si="62">F106*POWER(1+0.0005,(A107-A105))+D106</f>
+        <v>100175.65522813768</v>
+      </c>
+      <c r="G107" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" s="43">
+        <f t="shared" si="50"/>
+        <v>44306</v>
+      </c>
+      <c r="B108" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C108" s="54">
+        <v>4</v>
+      </c>
+      <c r="D108" s="38">
+        <f t="shared" ref="D108:E108" si="63">E108*5%</f>
+        <v>250.43913807034426</v>
+      </c>
+      <c r="E108" s="39">
+        <f t="shared" si="63"/>
+        <v>5008.7827614068847</v>
+      </c>
+      <c r="F108" s="37">
+        <f t="shared" ref="F108:F139" si="64">F107</f>
+        <v>100175.65522813768</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A109" s="43">
+        <f t="shared" si="48"/>
+        <v>44317</v>
+      </c>
+      <c r="B109" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C109" s="54">
+        <v>5</v>
+      </c>
+      <c r="F109" s="37">
+        <f t="shared" ref="F109" si="65">F108*POWER(1+0.0005,(A109-A107))+D108</f>
+        <v>101939.67430831023</v>
+      </c>
+      <c r="G109" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" s="43">
+        <f t="shared" si="50"/>
+        <v>44336</v>
+      </c>
+      <c r="B110" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C110" s="54">
+        <v>5</v>
+      </c>
+      <c r="D110" s="38">
+        <f t="shared" ref="D110:E110" si="66">E110*5%</f>
+        <v>254.84918577077562</v>
+      </c>
+      <c r="E110" s="39">
+        <f t="shared" si="66"/>
+        <v>5096.9837154155121</v>
+      </c>
+      <c r="F110" s="37">
+        <f t="shared" ref="F110:F141" si="67">F109</f>
+        <v>101939.67430831023</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A111" s="43">
+        <f t="shared" si="48"/>
+        <v>44348</v>
+      </c>
+      <c r="B111" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C111" s="54">
+        <v>6</v>
+      </c>
+      <c r="F111" s="37">
+        <f t="shared" ref="F111" si="68">F110*POWER(1+0.0005,(A111-A109))+D110</f>
+        <v>103786.49641136578</v>
+      </c>
+      <c r="G111" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" s="43">
+        <f t="shared" si="50"/>
+        <v>44367</v>
+      </c>
+      <c r="B112" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C112" s="54">
+        <v>6</v>
+      </c>
+      <c r="D112" s="38">
+        <f t="shared" ref="D112:E112" si="69">E112*5%</f>
+        <v>259.46624102841446</v>
+      </c>
+      <c r="E112" s="39">
+        <f t="shared" si="69"/>
+        <v>5189.3248205682894</v>
+      </c>
+      <c r="F112" s="37">
+        <f t="shared" ref="F112:F143" si="70">F111</f>
+        <v>103786.49641136578</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A113" s="43">
+        <f t="shared" si="48"/>
+        <v>44378</v>
+      </c>
+      <c r="B113" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C113" s="54">
+        <v>7</v>
+      </c>
+      <c r="F113" s="37">
+        <f t="shared" ref="F113" si="71">F112*POWER(1+0.0005,(A113-A111))+D112</f>
+        <v>105614.09972992619</v>
+      </c>
+      <c r="G113" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114" s="43">
+        <f t="shared" si="50"/>
+        <v>44397</v>
+      </c>
+      <c r="B114" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C114" s="54">
+        <v>7</v>
+      </c>
+      <c r="D114" s="38">
+        <f t="shared" ref="D114:E114" si="72">E114*5%</f>
+        <v>264.03524932481554</v>
+      </c>
+      <c r="E114" s="39">
+        <f t="shared" si="72"/>
+        <v>5280.7049864963101</v>
+      </c>
+      <c r="F114" s="37">
+        <f t="shared" ref="F114:F145" si="73">F113</f>
+        <v>105614.09972992619</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A115" s="43">
+        <f t="shared" si="48"/>
+        <v>44409</v>
+      </c>
+      <c r="B115" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C115" s="54">
+        <v>8</v>
+      </c>
+      <c r="F115" s="37">
+        <f t="shared" ref="F115" si="74">F114*POWER(1+0.0005,(A115-A113))+D114</f>
+        <v>107527.49071433942</v>
+      </c>
+      <c r="G115" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116" s="43">
+        <f t="shared" si="50"/>
+        <v>44428</v>
+      </c>
+      <c r="B116" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C116" s="54">
+        <v>8</v>
+      </c>
+      <c r="D116" s="38">
+        <f t="shared" ref="D116:E116" si="75">E116*5%</f>
+        <v>268.81872678584858</v>
+      </c>
+      <c r="E116" s="39">
+        <f t="shared" si="75"/>
+        <v>5376.3745357169719</v>
+      </c>
+      <c r="F116" s="37">
+        <f t="shared" ref="F116:F147" si="76">F115</f>
+        <v>107527.49071433942</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A117" s="43">
+        <f t="shared" si="48"/>
+        <v>44440</v>
+      </c>
+      <c r="B117" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C117" s="54">
+        <v>9</v>
+      </c>
+      <c r="F117" s="37">
+        <f t="shared" ref="F117" si="77">F116*POWER(1+0.0005,(A117-A115))+D116</f>
+        <v>109475.54624703355</v>
+      </c>
+      <c r="G117" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118" s="43">
+        <f t="shared" si="50"/>
+        <v>44459</v>
+      </c>
+      <c r="B118" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C118" s="54">
+        <v>9</v>
+      </c>
+      <c r="D118" s="38">
+        <f t="shared" ref="D118:E118" si="78">E118*5%</f>
+        <v>273.68886561758393</v>
+      </c>
+      <c r="E118" s="39">
+        <f t="shared" si="78"/>
+        <v>5473.7773123516781</v>
+      </c>
+      <c r="F118" s="37">
+        <f t="shared" ref="F118:F149" si="79">F117</f>
+        <v>109475.54624703355</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A119" s="43">
+        <f t="shared" si="48"/>
+        <v>44470</v>
+      </c>
+      <c r="B119" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C119" s="54">
+        <v>10</v>
+      </c>
+      <c r="F119" s="37">
+        <f t="shared" ref="F119" si="80">F118*POWER(1+0.0005,(A119-A117))+D118</f>
+        <v>111403.32951885025</v>
+      </c>
+      <c r="G119" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120" s="43">
+        <f t="shared" si="50"/>
+        <v>44489</v>
+      </c>
+      <c r="B120" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C120" s="54">
+        <v>10</v>
+      </c>
+      <c r="D120" s="38">
+        <f t="shared" ref="D120:E120" si="81">E120*5%</f>
+        <v>278.50832379712568</v>
+      </c>
+      <c r="E120" s="39">
+        <f t="shared" si="81"/>
+        <v>5570.166475942513</v>
+      </c>
+      <c r="F120" s="37">
+        <f t="shared" ref="F120:F151" si="82">F119</f>
+        <v>111403.32951885025</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A121" s="43">
+        <f t="shared" si="48"/>
+        <v>44501</v>
+      </c>
+      <c r="B121" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C121" s="54">
+        <v>11</v>
+      </c>
+      <c r="F121" s="37">
+        <f t="shared" ref="F121" si="83">F120*POWER(1+0.0005,(A121-A119))+D120</f>
+        <v>113421.60290166624</v>
+      </c>
+      <c r="G121" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122" s="43">
+        <f t="shared" si="50"/>
+        <v>44520</v>
+      </c>
+      <c r="B122" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C122" s="54">
+        <v>11</v>
+      </c>
+      <c r="D122" s="38">
+        <f t="shared" ref="D122:E122" si="84">E122*5%</f>
+        <v>283.55400725416564</v>
+      </c>
+      <c r="E122" s="39">
+        <f t="shared" si="84"/>
+        <v>5671.0801450833123</v>
+      </c>
+      <c r="F122" s="37">
+        <f t="shared" ref="F122:F153" si="85">F121</f>
+        <v>113421.60290166624</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A123" s="43">
+        <f t="shared" si="48"/>
+        <v>44531</v>
+      </c>
+      <c r="B123" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C123" s="54">
+        <v>12</v>
+      </c>
+      <c r="F123" s="37">
+        <f t="shared" ref="F123" si="86">F122*POWER(1+0.0005,(A123-A121))+D122</f>
+        <v>115418.8733080004</v>
+      </c>
+      <c r="G123" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124" s="43">
+        <f t="shared" si="50"/>
+        <v>44550</v>
+      </c>
+      <c r="B124" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C124" s="54">
+        <v>12</v>
+      </c>
+      <c r="D124" s="38">
+        <f t="shared" ref="D124:E124" si="87">E124*5%</f>
+        <v>288.54718327000103</v>
+      </c>
+      <c r="E124" s="39">
+        <f t="shared" si="87"/>
+        <v>5770.9436654000201</v>
+      </c>
+      <c r="F124" s="37">
+        <f t="shared" ref="F124:F155" si="88">F123</f>
+        <v>115418.8733080004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A125" s="43">
+        <f t="shared" si="48"/>
+        <v>44562</v>
+      </c>
+      <c r="B125" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C125" s="54">
+        <v>1</v>
+      </c>
+      <c r="F125" s="37">
+        <f t="shared" ref="F125" si="89">F124*POWER(1+0.0005,(A125-A123))+D124</f>
+        <v>117509.89555013842</v>
+      </c>
+      <c r="G125" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126" s="43">
+        <f t="shared" si="50"/>
+        <v>44581</v>
+      </c>
+      <c r="B126" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C126" s="54">
+        <v>1</v>
+      </c>
+      <c r="D126" s="38">
+        <f t="shared" ref="D126:E126" si="90">E126*5%</f>
+        <v>293.77473887534609</v>
+      </c>
+      <c r="E126" s="39">
+        <f t="shared" si="90"/>
+        <v>5875.4947775069213</v>
+      </c>
+      <c r="F126" s="37">
+        <f t="shared" ref="F126:F157" si="91">F125</f>
+        <v>117509.89555013842</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A127" s="43">
+        <f t="shared" si="48"/>
+        <v>44593</v>
+      </c>
+      <c r="B127" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C127" s="54">
+        <v>2</v>
+      </c>
+      <c r="F127" s="37">
+        <f t="shared" ref="F127" si="92">F126*POWER(1+0.0005,(A127-A125))+D126</f>
+        <v>119638.80045298695</v>
+      </c>
+      <c r="G127" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" s="43">
+        <f t="shared" si="50"/>
+        <v>44612</v>
+      </c>
+      <c r="B128" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C128" s="54">
+        <v>2</v>
+      </c>
+      <c r="D128" s="38">
+        <f t="shared" ref="D128:E128" si="93">E128*5%</f>
+        <v>299.09700113246743</v>
+      </c>
+      <c r="E128" s="39">
+        <f t="shared" si="93"/>
+        <v>5981.9400226493481</v>
+      </c>
+      <c r="F128" s="37">
+        <f t="shared" ref="F128:F159" si="94">F127</f>
+        <v>119638.80045298695</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A129" s="43">
+        <f t="shared" si="48"/>
+        <v>44621</v>
+      </c>
+      <c r="B129" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C129" s="54">
+        <v>3</v>
+      </c>
+      <c r="F129" s="37">
+        <f t="shared" ref="F129" si="95">F128*POWER(1+0.0005,(A129-A127))+D128</f>
+        <v>121624.19567266117</v>
+      </c>
+      <c r="G129" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130" s="43">
+        <f t="shared" si="50"/>
+        <v>44640</v>
+      </c>
+      <c r="B130" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C130" s="54">
+        <v>3</v>
+      </c>
+      <c r="D130" s="38">
+        <f t="shared" ref="D130:E130" si="96">E130*5%</f>
+        <v>304.06048918165294</v>
+      </c>
+      <c r="E130" s="39">
+        <f t="shared" si="96"/>
+        <v>6081.2097836330586</v>
+      </c>
+      <c r="F130" s="37">
+        <f t="shared" ref="F130:F161" si="97">F129</f>
+        <v>121624.19567266117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A131" s="43">
+        <f t="shared" si="48"/>
+        <v>44652</v>
+      </c>
+      <c r="B131" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C131" s="54">
+        <v>4</v>
+      </c>
+      <c r="F131" s="37">
+        <f t="shared" ref="F131" si="98">F130*POWER(1+0.0005,(A131-A129))+D130</f>
+        <v>123827.63858493965</v>
+      </c>
+      <c r="G131" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132" s="43">
+        <f t="shared" si="50"/>
+        <v>44671</v>
+      </c>
+      <c r="B132" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C132" s="54">
+        <v>4</v>
+      </c>
+      <c r="D132" s="38">
+        <f t="shared" ref="D132:E132" si="99">E132*5%</f>
+        <v>309.56909646234914</v>
+      </c>
+      <c r="E132" s="39">
+        <f t="shared" si="99"/>
+        <v>6191.3819292469825</v>
+      </c>
+      <c r="F132" s="37">
+        <f t="shared" ref="F132:F163" si="100">F131</f>
+        <v>123827.63858493965</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A133" s="43">
+        <f t="shared" si="48"/>
+        <v>44682</v>
+      </c>
+      <c r="B133" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C133" s="54">
+        <v>5</v>
+      </c>
+      <c r="F133" s="37">
+        <f t="shared" ref="F133" si="101">F132*POWER(1+0.0005,(A133-A131))+D132</f>
+        <v>126008.15157104479</v>
+      </c>
+      <c r="G133" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A134" s="43">
+        <f t="shared" si="50"/>
+        <v>44701</v>
+      </c>
+      <c r="B134" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C134" s="54">
+        <v>5</v>
+      </c>
+      <c r="D134" s="38">
+        <f t="shared" ref="D134:E134" si="102">E134*5%</f>
+        <v>315.020378927612</v>
+      </c>
+      <c r="E134" s="39">
+        <f t="shared" si="102"/>
+        <v>6300.40757855224</v>
+      </c>
+      <c r="F134" s="37">
+        <f t="shared" ref="F134:F165" si="103">F133</f>
+        <v>126008.15157104479</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A135" s="43">
+        <f t="shared" si="48"/>
+        <v>44713</v>
+      </c>
+      <c r="B135" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C135" s="54">
+        <v>6</v>
+      </c>
+      <c r="F135" s="37">
+        <f t="shared" ref="F135" si="104">F134*POWER(1+0.0005,(A135-A133))+D134</f>
+        <v>128291.01779624724</v>
+      </c>
+      <c r="G135" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A136" s="43">
+        <f t="shared" si="50"/>
+        <v>44732</v>
+      </c>
+      <c r="B136" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C136" s="54">
+        <v>6</v>
+      </c>
+      <c r="D136" s="38">
+        <f t="shared" ref="D136:E136" si="105">E136*5%</f>
+        <v>320.72754449061813</v>
+      </c>
+      <c r="E136" s="39">
+        <f t="shared" si="105"/>
+        <v>6414.5508898123626</v>
+      </c>
+      <c r="F136" s="37">
+        <f t="shared" ref="F136:F167" si="106">F135</f>
+        <v>128291.01779624724</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A137" s="43">
+        <f t="shared" si="48"/>
+        <v>44743</v>
+      </c>
+      <c r="B137" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C137" s="54">
+        <v>7</v>
+      </c>
+      <c r="F137" s="37">
+        <f t="shared" ref="F137" si="107">F136*POWER(1+0.0005,(A137-A135))+D136</f>
+        <v>130550.12758386928</v>
+      </c>
+      <c r="G137" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A138" s="43">
+        <f t="shared" si="50"/>
+        <v>44762</v>
+      </c>
+      <c r="B138" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C138" s="54">
+        <v>7</v>
+      </c>
+      <c r="D138" s="38">
+        <f t="shared" ref="D138:E138" si="108">E138*5%</f>
+        <v>326.37531895967322</v>
+      </c>
+      <c r="E138" s="39">
+        <f t="shared" si="108"/>
+        <v>6527.5063791934645</v>
+      </c>
+      <c r="F138" s="37">
+        <f t="shared" ref="F138:F169" si="109">F137</f>
+        <v>130550.12758386928</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A139" s="43">
+        <f t="shared" si="48"/>
+        <v>44774</v>
+      </c>
+      <c r="B139" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C139" s="54">
+        <v>8</v>
+      </c>
+      <c r="F139" s="37">
+        <f t="shared" ref="F139" si="110">F138*POWER(1+0.0005,(A139-A137))+D138</f>
+        <v>132915.27994299307</v>
+      </c>
+      <c r="G139" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A140" s="43">
+        <f t="shared" si="50"/>
+        <v>44793</v>
+      </c>
+      <c r="B140" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C140" s="54">
+        <v>8</v>
+      </c>
+      <c r="D140" s="38">
+        <f t="shared" ref="D140:E140" si="111">E140*5%</f>
+        <v>332.28819985748271</v>
+      </c>
+      <c r="E140" s="39">
+        <f t="shared" si="111"/>
+        <v>6645.7639971496537</v>
+      </c>
+      <c r="F140" s="37">
+        <f t="shared" ref="F140:F171" si="112">F139</f>
+        <v>132915.27994299307</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A141" s="43">
+        <f t="shared" si="48"/>
+        <v>44805</v>
+      </c>
+      <c r="B141" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C141" s="54">
+        <v>9</v>
+      </c>
+      <c r="F141" s="37">
+        <f t="shared" ref="F141" si="113">F140*POWER(1+0.0005,(A141-A139))+D140</f>
+        <v>135323.28132712664</v>
+      </c>
+      <c r="G141" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A142" s="43">
+        <f t="shared" si="50"/>
+        <v>44824</v>
+      </c>
+      <c r="B142" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C142" s="54">
+        <v>9</v>
+      </c>
+      <c r="D142" s="38">
+        <f t="shared" ref="D142:E142" si="114">E142*5%</f>
+        <v>338.30820331781661</v>
+      </c>
+      <c r="E142" s="39">
+        <f t="shared" si="114"/>
+        <v>6766.1640663563321</v>
+      </c>
+      <c r="F142" s="37">
+        <f t="shared" ref="F142:F173" si="115">F141</f>
+        <v>135323.28132712664</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A143" s="43">
+        <f t="shared" si="48"/>
+        <v>44835</v>
+      </c>
+      <c r="B143" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C143" s="54">
+        <v>10</v>
+      </c>
+      <c r="F143" s="37">
+        <f t="shared" ref="F143" si="116">F142*POWER(1+0.0005,(A143-A141))+D142</f>
+        <v>137706.2240661481</v>
+      </c>
+      <c r="G143" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A144" s="43">
+        <f t="shared" si="50"/>
+        <v>44854</v>
+      </c>
+      <c r="B144" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C144" s="54">
+        <v>10</v>
+      </c>
+      <c r="D144" s="38">
+        <f t="shared" ref="D144:E144" si="117">E144*5%</f>
+        <v>344.26556016537029</v>
+      </c>
+      <c r="E144" s="39">
+        <f t="shared" si="117"/>
+        <v>6885.3112033074058</v>
+      </c>
+      <c r="F144" s="37">
+        <f t="shared" ref="F144:F175" si="118">F143</f>
+        <v>137706.2240661481</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A145" s="43">
+        <f t="shared" si="48"/>
+        <v>44866</v>
+      </c>
+      <c r="B145" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C145" s="54">
+        <v>11</v>
+      </c>
+      <c r="F145" s="37">
+        <f t="shared" ref="F145" si="119">F144*POWER(1+0.0005,(A145-A143))+D144</f>
+        <v>140201.02209311168</v>
+      </c>
+      <c r="G145" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A146" s="43">
+        <f t="shared" si="50"/>
+        <v>44885</v>
+      </c>
+      <c r="B146" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C146" s="54">
+        <v>11</v>
+      </c>
+      <c r="D146" s="38">
+        <f t="shared" ref="D146:E146" si="120">E146*5%</f>
+        <v>350.50255523277923</v>
+      </c>
+      <c r="E146" s="39">
+        <f t="shared" si="120"/>
+        <v>7010.0511046555839</v>
+      </c>
+      <c r="F146" s="37">
+        <f t="shared" ref="F146:F177" si="121">F145</f>
+        <v>140201.02209311168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A147" s="43">
+        <f t="shared" si="48"/>
+        <v>44896</v>
+      </c>
+      <c r="B147" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C147" s="54">
+        <v>12</v>
+      </c>
+      <c r="F147" s="37">
+        <f t="shared" ref="F147" si="122">F146*POWER(1+0.0005,(A147-A145))+D146</f>
+        <v>142669.85823367606</v>
+      </c>
+      <c r="G147" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A148" s="43">
+        <f t="shared" si="50"/>
+        <v>44915</v>
+      </c>
+      <c r="B148" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C148" s="54">
+        <v>12</v>
+      </c>
+      <c r="D148" s="38">
+        <f t="shared" ref="D148:E148" si="123">E148*5%</f>
+        <v>356.67464558419016</v>
+      </c>
+      <c r="E148" s="39">
+        <f t="shared" si="123"/>
+        <v>7133.492911683803</v>
+      </c>
+      <c r="F148" s="37">
+        <f t="shared" ref="F148:F179" si="124">F147</f>
+        <v>142669.85823367606</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A149" s="43">
+        <f t="shared" si="48"/>
+        <v>44927</v>
+      </c>
+      <c r="B149" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C149" s="54">
+        <v>1</v>
+      </c>
+      <c r="F149" s="37">
+        <f t="shared" ref="F149" si="125">F148*POWER(1+0.0005,(A149-A147))+D148</f>
+        <v>145254.58149685676</v>
+      </c>
+      <c r="G149" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A150" s="43">
+        <f t="shared" si="50"/>
+        <v>44946</v>
+      </c>
+      <c r="B150" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C150" s="54">
+        <v>1</v>
+      </c>
+      <c r="D150" s="38">
+        <f t="shared" ref="D150:E150" si="126">E150*5%</f>
+        <v>363.13645374214195</v>
+      </c>
+      <c r="E150" s="39">
+        <f t="shared" si="126"/>
+        <v>7262.7290748428386</v>
+      </c>
+      <c r="F150" s="37">
+        <f t="shared" ref="F150:F181" si="127">F149</f>
+        <v>145254.58149685676</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A151" s="43">
+        <f t="shared" si="48"/>
+        <v>44958</v>
+      </c>
+      <c r="B151" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C151" s="54">
+        <v>2</v>
+      </c>
+      <c r="F151" s="37">
+        <f t="shared" ref="F151" si="128">F150*POWER(1+0.0005,(A151-A149))+D150</f>
+        <v>147886.13171024222</v>
+      </c>
+      <c r="G151" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A152" s="43">
+        <f t="shared" si="50"/>
+        <v>44977</v>
+      </c>
+      <c r="B152" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C152" s="54">
+        <v>2</v>
+      </c>
+      <c r="D152" s="38">
+        <f t="shared" ref="D152:E152" si="129">E152*5%</f>
+        <v>369.7153292756056</v>
+      </c>
+      <c r="E152" s="39">
+        <f t="shared" si="129"/>
+        <v>7394.3065855121113</v>
+      </c>
+      <c r="F152" s="37">
+        <f t="shared" ref="F152:F183" si="130">F151</f>
+        <v>147886.13171024222</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A153" s="43">
+        <f t="shared" si="48"/>
+        <v>44986</v>
+      </c>
+      <c r="B153" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C153" s="54">
+        <v>3</v>
+      </c>
+      <c r="F153" s="37">
+        <f t="shared" ref="F153" si="131">F152*POWER(1+0.0005,(A153-A151))+D152</f>
+        <v>150340.28887198176</v>
+      </c>
+      <c r="G153" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A154" s="43">
+        <f t="shared" si="50"/>
+        <v>45005</v>
+      </c>
+      <c r="B154" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C154" s="54">
+        <v>3</v>
+      </c>
+      <c r="D154" s="38">
+        <f t="shared" ref="D154:E154" si="132">E154*5%</f>
+        <v>375.8507221799544</v>
+      </c>
+      <c r="E154" s="39">
+        <f t="shared" si="132"/>
+        <v>7517.0144435990878</v>
+      </c>
+      <c r="F154" s="37">
+        <f t="shared" ref="F154:F185" si="133">F153</f>
+        <v>150340.28887198176</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A155" s="43">
+        <f t="shared" si="48"/>
+        <v>45017</v>
+      </c>
+      <c r="B155" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C155" s="54">
+        <v>4</v>
+      </c>
+      <c r="F155" s="37">
+        <f t="shared" ref="F155" si="134">F154*POWER(1+0.0005,(A155-A153))+D154</f>
+        <v>153063.97589916206</v>
+      </c>
+      <c r="G155" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A156" s="43">
+        <f t="shared" si="50"/>
+        <v>45036</v>
+      </c>
+      <c r="B156" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C156" s="54">
+        <v>4</v>
+      </c>
+      <c r="D156" s="38">
+        <f t="shared" ref="D156:E156" si="135">E156*5%</f>
+        <v>382.65993974790518</v>
+      </c>
+      <c r="E156" s="39">
+        <f t="shared" si="135"/>
+        <v>7653.1987949581035</v>
+      </c>
+      <c r="F156" s="37">
+        <f t="shared" ref="F156:F187" si="136">F155</f>
+        <v>153063.97589916206</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A157" s="43">
+        <f t="shared" si="48"/>
+        <v>45047</v>
+      </c>
+      <c r="B157" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C157" s="54">
+        <v>5</v>
+      </c>
+      <c r="F157" s="37">
+        <f t="shared" ref="F157" si="137">F156*POWER(1+0.0005,(A157-A155))+D156</f>
+        <v>155759.319127597</v>
+      </c>
+      <c r="G157" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A158" s="43">
+        <f t="shared" si="50"/>
+        <v>45066</v>
+      </c>
+      <c r="B158" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C158" s="54">
+        <v>5</v>
+      </c>
+      <c r="D158" s="38">
+        <f t="shared" ref="D158:E158" si="138">E158*5%</f>
+        <v>389.39829781899255</v>
+      </c>
+      <c r="E158" s="39">
+        <f t="shared" si="138"/>
+        <v>7787.9659563798505</v>
+      </c>
+      <c r="F158" s="37">
+        <f t="shared" ref="F158:F189" si="139">F157</f>
+        <v>155759.319127597</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A159" s="43">
+        <f t="shared" si="48"/>
+        <v>45078</v>
+      </c>
+      <c r="B159" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C159" s="54">
+        <v>6</v>
+      </c>
+      <c r="F159" s="37">
+        <f t="shared" ref="F159" si="140">F158*POWER(1+0.0005,(A159-A157))+D158</f>
+        <v>158581.18171714892</v>
+      </c>
+      <c r="G159" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A160" s="43">
+        <f t="shared" si="50"/>
+        <v>45097</v>
+      </c>
+      <c r="B160" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C160" s="54">
+        <v>6</v>
+      </c>
+      <c r="D160" s="38">
+        <f t="shared" ref="D160:E160" si="141">E160*5%</f>
+        <v>396.45295429287239</v>
+      </c>
+      <c r="E160" s="39">
+        <f t="shared" si="141"/>
+        <v>7929.0590858574469</v>
+      </c>
+      <c r="F160" s="37">
+        <f t="shared" ref="F160:F191" si="142">F159</f>
+        <v>158581.18171714892</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A161" s="43">
+        <f t="shared" si="48"/>
+        <v>45108</v>
+      </c>
+      <c r="B161" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C161" s="54">
+        <v>7</v>
+      </c>
+      <c r="F161" s="37">
+        <f t="shared" ref="F161" si="143">F160*POWER(1+0.0005,(A161-A159))+D160</f>
+        <v>161373.67885298785</v>
+      </c>
+      <c r="G161" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A162" s="43">
+        <f t="shared" si="50"/>
+        <v>45127</v>
+      </c>
+      <c r="B162" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C162" s="54">
+        <v>7</v>
+      </c>
+      <c r="D162" s="38">
+        <f t="shared" ref="D162:E162" si="144">E162*5%</f>
+        <v>403.43419713246971</v>
+      </c>
+      <c r="E162" s="39">
+        <f t="shared" si="144"/>
+        <v>8068.6839426493934</v>
+      </c>
+      <c r="F162" s="37">
+        <f t="shared" ref="F162:F193" si="145">F161</f>
+        <v>161373.67885298785</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A163" s="43">
+        <f t="shared" ref="A163:A219" si="146">DATE(B163,C163,1)</f>
+        <v>45139</v>
+      </c>
+      <c r="B163" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C163" s="54">
+        <v>8</v>
+      </c>
+      <c r="F163" s="37">
+        <f t="shared" ref="F163" si="147">F162*POWER(1+0.0005,(A163-A161))+D162</f>
+        <v>164297.25575255413</v>
+      </c>
+      <c r="G163" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A164" s="43">
+        <f t="shared" ref="A164:A220" si="148">DATE(B164,C164,20)</f>
+        <v>45158</v>
+      </c>
+      <c r="B164" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C164" s="54">
+        <v>8</v>
+      </c>
+      <c r="D164" s="38">
+        <f t="shared" ref="D164:E164" si="149">E164*5%</f>
+        <v>410.74313938138539</v>
+      </c>
+      <c r="E164" s="39">
+        <f t="shared" si="149"/>
+        <v>8214.8627876277078</v>
+      </c>
+      <c r="F164" s="37">
+        <f t="shared" ref="F164:F195" si="150">F163</f>
+        <v>164297.25575255413</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A165" s="43">
+        <f t="shared" si="146"/>
+        <v>45170</v>
+      </c>
+      <c r="B165" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C165" s="54">
+        <v>9</v>
+      </c>
+      <c r="F165" s="37">
+        <f t="shared" ref="F165" si="151">F164*POWER(1+0.0005,(A165-A163))+D164</f>
+        <v>167273.79855057687</v>
+      </c>
+      <c r="G165" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A166" s="43">
+        <f t="shared" si="148"/>
+        <v>45189</v>
+      </c>
+      <c r="B166" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C166" s="54">
+        <v>9</v>
+      </c>
+      <c r="D166" s="38">
+        <f t="shared" ref="D166:E166" si="152">E166*5%</f>
+        <v>418.18449637644221</v>
+      </c>
+      <c r="E166" s="39">
+        <f t="shared" si="152"/>
+        <v>8363.6899275288433</v>
+      </c>
+      <c r="F166" s="37">
+        <f t="shared" ref="F166:F197" si="153">F165</f>
+        <v>167273.79855057687</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A167" s="43">
+        <f t="shared" si="146"/>
+        <v>45200</v>
+      </c>
+      <c r="B167" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C167" s="54">
+        <v>10</v>
+      </c>
+      <c r="F167" s="37">
+        <f t="shared" ref="F167" si="154">F166*POWER(1+0.0005,(A167-A165))+D166</f>
+        <v>170219.36622951206</v>
+      </c>
+      <c r="G167" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A168" s="43">
+        <f t="shared" si="148"/>
+        <v>45219</v>
+      </c>
+      <c r="B168" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C168" s="54">
+        <v>10</v>
+      </c>
+      <c r="D168" s="38">
+        <f t="shared" ref="D168:E168" si="155">E168*5%</f>
+        <v>425.54841557378018</v>
+      </c>
+      <c r="E168" s="39">
+        <f t="shared" si="155"/>
+        <v>8510.9683114756026</v>
+      </c>
+      <c r="F168" s="37">
+        <f t="shared" ref="F168:F199" si="156">F167</f>
+        <v>170219.36622951206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A169" s="43">
+        <f t="shared" si="146"/>
+        <v>45231</v>
+      </c>
+      <c r="B169" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C169" s="54">
+        <v>11</v>
+      </c>
+      <c r="F169" s="37">
+        <f t="shared" ref="F169" si="157">F168*POWER(1+0.0005,(A169-A167))+D168</f>
+        <v>173303.19880062653</v>
+      </c>
+      <c r="G169" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A170" s="43">
+        <f t="shared" si="148"/>
+        <v>45250</v>
+      </c>
+      <c r="B170" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C170" s="54">
+        <v>11</v>
+      </c>
+      <c r="D170" s="38">
+        <f t="shared" ref="D170:E170" si="158">E170*5%</f>
+        <v>433.25799700156631</v>
+      </c>
+      <c r="E170" s="39">
+        <f t="shared" si="158"/>
+        <v>8665.1599400313262</v>
+      </c>
+      <c r="F170" s="37">
+        <f t="shared" ref="F170:F201" si="159">F169</f>
+        <v>173303.19880062653</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A171" s="43">
+        <f t="shared" si="146"/>
+        <v>45261</v>
+      </c>
+      <c r="B171" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C171" s="54">
+        <v>12</v>
+      </c>
+      <c r="F171" s="37">
+        <f t="shared" ref="F171" si="160">F170*POWER(1+0.0005,(A171-A169))+D170</f>
+        <v>176354.93975148955</v>
+      </c>
+      <c r="G171" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A172" s="43">
+        <f t="shared" si="148"/>
+        <v>45280</v>
+      </c>
+      <c r="B172" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C172" s="54">
+        <v>12</v>
+      </c>
+      <c r="D172" s="38">
+        <f t="shared" ref="D172:E172" si="161">E172*5%</f>
+        <v>440.88734937872391</v>
+      </c>
+      <c r="E172" s="39">
+        <f t="shared" si="161"/>
+        <v>8817.7469875744773</v>
+      </c>
+      <c r="F172" s="37">
+        <f t="shared" ref="F172:F203" si="162">F171</f>
+        <v>176354.93975148955</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A173" s="43">
+        <f t="shared" si="146"/>
+        <v>45292</v>
+      </c>
+      <c r="B173" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C173" s="55">
+        <v>1</v>
+      </c>
+      <c r="F173" s="37">
+        <f t="shared" ref="F173" si="163">F172*POWER(1+0.0005,(A173-A171))+D172</f>
+        <v>179549.92936594557</v>
+      </c>
+      <c r="G173" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A174" s="43">
+        <f t="shared" si="148"/>
+        <v>45311</v>
+      </c>
+      <c r="B174" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C174" s="55">
+        <v>1</v>
+      </c>
+      <c r="D174" s="38">
+        <f t="shared" ref="D174:E174" si="164">E174*5%</f>
+        <v>448.87482341486395</v>
+      </c>
+      <c r="E174" s="39">
+        <f t="shared" si="164"/>
+        <v>8977.4964682972786</v>
+      </c>
+      <c r="F174" s="37">
+        <f t="shared" ref="F174:F220" si="165">F173</f>
+        <v>179549.92936594557</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A175" s="43">
+        <f t="shared" si="146"/>
+        <v>45323</v>
+      </c>
+      <c r="B175" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C175" s="55">
+        <v>2</v>
+      </c>
+      <c r="F175" s="37">
+        <f t="shared" ref="F175" si="166">F174*POWER(1+0.0005,(A175-A173))+D174</f>
+        <v>182802.80201248941</v>
+      </c>
+      <c r="G175" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A176" s="43">
+        <f t="shared" si="148"/>
+        <v>45342</v>
+      </c>
+      <c r="B176" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C176" s="55">
+        <v>2</v>
+      </c>
+      <c r="D176" s="38">
+        <f t="shared" ref="D176:E176" si="167">E176*5%</f>
+        <v>457.00700503122357</v>
+      </c>
+      <c r="E176" s="39">
+        <f t="shared" si="167"/>
+        <v>9140.1401006244705</v>
+      </c>
+      <c r="F176" s="37">
+        <f t="shared" ref="F176:F220" si="168">F175</f>
+        <v>182802.80201248941</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A177" s="43">
+        <f t="shared" si="146"/>
+        <v>45352</v>
+      </c>
+      <c r="B177" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C177" s="55">
+        <v>3</v>
+      </c>
+      <c r="F177" s="37">
+        <f t="shared" ref="F177" si="169">F176*POWER(1+0.0005,(A177-A175))+D176</f>
+        <v>185929.0878983248</v>
+      </c>
+      <c r="G177" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A178" s="43">
+        <f t="shared" si="148"/>
+        <v>45371</v>
+      </c>
+      <c r="B178" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C178" s="55">
+        <v>3</v>
+      </c>
+      <c r="D178" s="38">
+        <f t="shared" ref="D178:E178" si="170">E178*5%</f>
+        <v>464.82271974581204</v>
+      </c>
+      <c r="E178" s="39">
+        <f t="shared" si="170"/>
+        <v>9296.4543949162398</v>
+      </c>
+      <c r="F178" s="37">
+        <f t="shared" ref="F178:F220" si="171">F177</f>
+        <v>185929.0878983248</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A179" s="43">
+        <f t="shared" si="146"/>
+        <v>45383</v>
+      </c>
+      <c r="B179" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C179" s="55">
+        <v>4</v>
+      </c>
+      <c r="F179" s="37">
+        <f t="shared" ref="F179" si="172">F178*POWER(1+0.0005,(A179-A177))+D178</f>
+        <v>189297.5305724995</v>
+      </c>
+      <c r="G179" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A180" s="43">
+        <f t="shared" si="148"/>
+        <v>45402</v>
+      </c>
+      <c r="B180" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C180" s="55">
+        <v>4</v>
+      </c>
+      <c r="D180" s="38">
+        <f t="shared" ref="D180:E180" si="173">E180*5%</f>
+        <v>473.24382643124875</v>
+      </c>
+      <c r="E180" s="39">
+        <f t="shared" si="173"/>
+        <v>9464.8765286249745</v>
+      </c>
+      <c r="F180" s="37">
+        <f t="shared" ref="F180:F220" si="174">F179</f>
+        <v>189297.5305724995</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A181" s="43">
+        <f t="shared" si="146"/>
+        <v>45413</v>
+      </c>
+      <c r="B181" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C181" s="55">
+        <v>5</v>
+      </c>
+      <c r="F181" s="37">
+        <f t="shared" ref="F181" si="175">F180*POWER(1+0.0005,(A181-A179))+D180</f>
+        <v>192630.91985754052</v>
+      </c>
+      <c r="G181" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A182" s="43">
+        <f t="shared" si="148"/>
+        <v>45432</v>
+      </c>
+      <c r="B182" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C182" s="55">
+        <v>5</v>
+      </c>
+      <c r="D182" s="38">
+        <f t="shared" ref="D182:E182" si="176">E182*5%</f>
+        <v>481.57729964385135</v>
+      </c>
+      <c r="E182" s="39">
+        <f t="shared" si="176"/>
+        <v>9631.5459928770269</v>
+      </c>
+      <c r="F182" s="37">
+        <f t="shared" ref="F182:F220" si="177">F181</f>
+        <v>192630.91985754052</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A183" s="43">
+        <f t="shared" si="146"/>
+        <v>45444</v>
+      </c>
+      <c r="B183" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C183" s="55">
+        <v>6</v>
+      </c>
+      <c r="F183" s="37">
+        <f t="shared" ref="F183" si="178">F182*POWER(1+0.0005,(A183-A181))+D182</f>
+        <v>196120.77837375345</v>
+      </c>
+      <c r="G183" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A184" s="43">
+        <f t="shared" si="148"/>
+        <v>45463</v>
+      </c>
+      <c r="B184" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C184" s="55">
+        <v>6</v>
+      </c>
+      <c r="D184" s="38">
+        <f t="shared" ref="D184:E184" si="179">E184*5%</f>
+        <v>490.30194593438364</v>
+      </c>
+      <c r="E184" s="39">
+        <f t="shared" si="179"/>
+        <v>9806.0389186876728</v>
+      </c>
+      <c r="F184" s="37">
+        <f t="shared" ref="F184:F220" si="180">F183</f>
+        <v>196120.77837375345</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A185" s="43">
+        <f t="shared" si="146"/>
+        <v>45474</v>
+      </c>
+      <c r="B185" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C185" s="55">
+        <v>7</v>
+      </c>
+      <c r="F185" s="37">
+        <f t="shared" ref="F185" si="181">F184*POWER(1+0.0005,(A185-A183))+D184</f>
+        <v>199574.31999803046</v>
+      </c>
+      <c r="G185" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A186" s="43">
+        <f t="shared" si="148"/>
+        <v>45493</v>
+      </c>
+      <c r="B186" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C186" s="55">
+        <v>7</v>
+      </c>
+      <c r="D186" s="38">
+        <f t="shared" ref="D186:E186" si="182">E186*5%</f>
+        <v>498.9357999950762</v>
+      </c>
+      <c r="E186" s="39">
+        <f t="shared" si="182"/>
+        <v>9978.7159999015239</v>
+      </c>
+      <c r="F186" s="37">
+        <f t="shared" ref="F186:F220" si="183">F185</f>
+        <v>199574.31999803046</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A187" s="43">
+        <f t="shared" si="146"/>
+        <v>45505</v>
+      </c>
+      <c r="B187" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C187" s="55">
+        <v>8</v>
+      </c>
+      <c r="F187" s="37">
+        <f t="shared" ref="F187" si="184">F186*POWER(1+0.0005,(A187-A185))+D186</f>
+        <v>203189.97080205305</v>
+      </c>
+      <c r="G187" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A188" s="43">
+        <f t="shared" si="148"/>
+        <v>45524</v>
+      </c>
+      <c r="B188" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C188" s="55">
+        <v>8</v>
+      </c>
+      <c r="D188" s="38">
+        <f t="shared" ref="D188:E188" si="185">E188*5%</f>
+        <v>507.97492700513271</v>
+      </c>
+      <c r="E188" s="39">
+        <f t="shared" si="185"/>
+        <v>10159.498540102653</v>
+      </c>
+      <c r="F188" s="37">
+        <f t="shared" ref="F188:F220" si="186">F187</f>
+        <v>203189.97080205305</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A189" s="43">
+        <f t="shared" si="146"/>
+        <v>45536</v>
+      </c>
+      <c r="B189" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C189" s="55">
+        <v>9</v>
+      </c>
+      <c r="F189" s="37">
+        <f t="shared" ref="F189" si="187">F188*POWER(1+0.0005,(A189-A187))+D188</f>
+        <v>206871.12567862746</v>
+      </c>
+      <c r="G189" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A190" s="43">
+        <f t="shared" si="148"/>
+        <v>45555</v>
+      </c>
+      <c r="B190" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C190" s="55">
+        <v>9</v>
+      </c>
+      <c r="D190" s="38">
+        <f t="shared" ref="D190:E190" si="188">E190*5%</f>
+        <v>517.17781419656865</v>
+      </c>
+      <c r="E190" s="39">
+        <f t="shared" si="188"/>
+        <v>10343.556283931373</v>
+      </c>
+      <c r="F190" s="37">
+        <f t="shared" ref="F190:F220" si="189">F189</f>
+        <v>206871.12567862746</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A191" s="43">
+        <f t="shared" si="146"/>
+        <v>45566</v>
+      </c>
+      <c r="B191" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C191" s="55">
+        <v>10</v>
+      </c>
+      <c r="F191" s="37">
+        <f t="shared" ref="F191" si="190">F190*POWER(1+0.0005,(A191-A189))+D190</f>
+        <v>210513.97295527169</v>
+      </c>
+      <c r="G191" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A192" s="43">
+        <f t="shared" si="148"/>
+        <v>45585</v>
+      </c>
+      <c r="B192" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C192" s="55">
+        <v>10</v>
+      </c>
+      <c r="D192" s="38">
+        <f t="shared" ref="D192:E192" si="191">E192*5%</f>
+        <v>526.2849323881793</v>
+      </c>
+      <c r="E192" s="39">
+        <f t="shared" si="191"/>
+        <v>10525.698647763586</v>
+      </c>
+      <c r="F192" s="37">
+        <f t="shared" ref="F192:F220" si="192">F191</f>
+        <v>210513.97295527169</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A193" s="43">
+        <f t="shared" si="146"/>
+        <v>45597</v>
+      </c>
+      <c r="B193" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C193" s="55">
+        <v>11</v>
+      </c>
+      <c r="F193" s="37">
+        <f t="shared" ref="F193" si="193">F192*POWER(1+0.0005,(A193-A191))+D192</f>
+        <v>214327.8154154701</v>
+      </c>
+      <c r="G193" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A194" s="43">
+        <f t="shared" si="148"/>
+        <v>45616</v>
+      </c>
+      <c r="B194" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C194" s="55">
+        <v>11</v>
+      </c>
+      <c r="D194" s="38">
+        <f t="shared" ref="D194:E194" si="194">E194*5%</f>
+        <v>535.81953853867526</v>
+      </c>
+      <c r="E194" s="39">
+        <f t="shared" si="194"/>
+        <v>10716.390770773505</v>
+      </c>
+      <c r="F194" s="37">
+        <f t="shared" ref="F194:F220" si="195">F193</f>
+        <v>214327.8154154701</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A195" s="43">
+        <f t="shared" si="146"/>
+        <v>45627</v>
+      </c>
+      <c r="B195" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C195" s="55">
+        <v>12</v>
+      </c>
+      <c r="F195" s="37">
+        <f t="shared" ref="F195" si="196">F194*POWER(1+0.0005,(A195-A193))+D194</f>
+        <v>218101.96947459318</v>
+      </c>
+      <c r="G195" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A196" s="43">
+        <f t="shared" si="148"/>
+        <v>45646</v>
+      </c>
+      <c r="B196" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C196" s="55">
+        <v>12</v>
+      </c>
+      <c r="D196" s="38">
+        <f t="shared" ref="D196:E196" si="197">E196*5%</f>
+        <v>545.25492368648304</v>
+      </c>
+      <c r="E196" s="39">
+        <f t="shared" si="197"/>
+        <v>10905.09847372966</v>
+      </c>
+      <c r="F196" s="37">
+        <f t="shared" ref="F196:F220" si="198">F195</f>
+        <v>218101.96947459318</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A197" s="43">
+        <f t="shared" si="146"/>
+        <v>45658</v>
+      </c>
+      <c r="B197" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C197" s="55">
+        <v>1</v>
+      </c>
+      <c r="F197" s="37">
+        <f t="shared" ref="F197" si="199">F196*POWER(1+0.0005,(A197-A195))+D196</f>
+        <v>222053.28225520294</v>
+      </c>
+      <c r="G197" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A198" s="43">
+        <f t="shared" si="148"/>
+        <v>45677</v>
+      </c>
+      <c r="B198" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C198" s="55">
+        <v>1</v>
+      </c>
+      <c r="D198" s="38">
+        <f t="shared" ref="D198:E198" si="200">E198*5%</f>
+        <v>555.13320563800733</v>
+      </c>
+      <c r="E198" s="39">
+        <f t="shared" si="200"/>
+        <v>11102.664112760147</v>
+      </c>
+      <c r="F198" s="37">
+        <f t="shared" ref="F198:F220" si="201">F197</f>
+        <v>222053.28225520294</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A199" s="43">
+        <f t="shared" si="146"/>
+        <v>45689</v>
+      </c>
+      <c r="B199" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C199" s="55">
+        <v>2</v>
+      </c>
+      <c r="F199" s="37">
+        <f t="shared" ref="F199" si="202">F198*POWER(1+0.0005,(A199-A197))+D198</f>
+        <v>226076.18023390984</v>
+      </c>
+      <c r="G199" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A200" s="43">
+        <f t="shared" si="148"/>
+        <v>45708</v>
+      </c>
+      <c r="B200" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C200" s="55">
+        <v>2</v>
+      </c>
+      <c r="D200" s="38">
+        <f t="shared" ref="D200:E200" si="203">E200*5%</f>
+        <v>565.19045058477457</v>
+      </c>
+      <c r="E200" s="39">
+        <f t="shared" si="203"/>
+        <v>11303.809011695492</v>
+      </c>
+      <c r="F200" s="37">
+        <f t="shared" ref="F200:F220" si="204">F199</f>
+        <v>226076.18023390984</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A201" s="43">
+        <f t="shared" si="146"/>
+        <v>45717</v>
+      </c>
+      <c r="B201" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C201" s="55">
+        <v>3</v>
+      </c>
+      <c r="F201" s="37">
+        <f t="shared" ref="F201" si="205">F200*POWER(1+0.0005,(A201-A199))+D200</f>
+        <v>229827.89427499962</v>
+      </c>
+      <c r="G201" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A202" s="43">
+        <f t="shared" si="148"/>
+        <v>45736</v>
+      </c>
+      <c r="B202" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C202" s="55">
+        <v>3</v>
+      </c>
+      <c r="D202" s="38">
+        <f t="shared" ref="D202:E202" si="206">E202*5%</f>
+        <v>574.56973568749913</v>
+      </c>
+      <c r="E202" s="39">
+        <f t="shared" si="206"/>
+        <v>11491.394713749982</v>
+      </c>
+      <c r="F202" s="37">
+        <f t="shared" ref="F202:F220" si="207">F201</f>
+        <v>229827.89427499962</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A203" s="43">
+        <f t="shared" si="146"/>
+        <v>45748</v>
+      </c>
+      <c r="B203" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C203" s="55">
+        <v>4</v>
+      </c>
+      <c r="F203" s="37">
+        <f t="shared" ref="F203" si="208">F202*POWER(1+0.0005,(A203-A201))+D202</f>
+        <v>233991.64345240089</v>
+      </c>
+      <c r="G203" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A204" s="43">
+        <f t="shared" si="148"/>
+        <v>45767</v>
+      </c>
+      <c r="B204" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C204" s="55">
+        <v>4</v>
+      </c>
+      <c r="D204" s="38">
+        <f t="shared" ref="D204:E204" si="209">E204*5%</f>
+        <v>584.9791086310023</v>
+      </c>
+      <c r="E204" s="39">
+        <f t="shared" si="209"/>
+        <v>11699.582172620045</v>
+      </c>
+      <c r="F204" s="37">
+        <f t="shared" ref="F204:F220" si="210">F203</f>
+        <v>233991.64345240089</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A205" s="43">
+        <f t="shared" si="146"/>
+        <v>45778</v>
+      </c>
+      <c r="B205" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C205" s="55">
+        <v>5</v>
+      </c>
+      <c r="F205" s="37">
+        <f t="shared" ref="F205" si="211">F204*POWER(1+0.0005,(A205-A203))+D204</f>
+        <v>238112.06295663019</v>
+      </c>
+      <c r="G205" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A206" s="43">
+        <f t="shared" si="148"/>
+        <v>45797</v>
+      </c>
+      <c r="B206" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C206" s="55">
+        <v>5</v>
+      </c>
+      <c r="D206" s="38">
+        <f t="shared" ref="D206:E206" si="212">E206*5%</f>
+        <v>595.28015739157559</v>
+      </c>
+      <c r="E206" s="39">
+        <f t="shared" si="212"/>
+        <v>11905.603147831511</v>
+      </c>
+      <c r="F206" s="37">
+        <f t="shared" ref="F206:F220" si="213">F205</f>
+        <v>238112.06295663019</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A207" s="43">
+        <f t="shared" si="146"/>
+        <v>45809</v>
+      </c>
+      <c r="B207" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C207" s="55">
+        <v>6</v>
+      </c>
+      <c r="F207" s="37">
+        <f t="shared" ref="F207" si="214">F206*POWER(1+0.0005,(A207-A205))+D206</f>
+        <v>242425.89487591275</v>
+      </c>
+      <c r="G207" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A208" s="43">
+        <f t="shared" si="148"/>
+        <v>45828</v>
+      </c>
+      <c r="B208" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C208" s="55">
+        <v>6</v>
+      </c>
+      <c r="D208" s="38">
+        <f t="shared" ref="D208:E208" si="215">E208*5%</f>
+        <v>606.06473718978202</v>
+      </c>
+      <c r="E208" s="39">
+        <f t="shared" si="215"/>
+        <v>12121.294743795639</v>
+      </c>
+      <c r="F208" s="37">
+        <f t="shared" ref="F208:F220" si="216">F207</f>
+        <v>242425.89487591275</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A209" s="43">
+        <f t="shared" si="146"/>
+        <v>45839</v>
+      </c>
+      <c r="B209" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C209" s="55">
+        <v>7</v>
+      </c>
+      <c r="F209" s="37">
+        <f t="shared" ref="F209" si="217">F208*POWER(1+0.0005,(A209-A207))+D208</f>
+        <v>246694.83529976237</v>
+      </c>
+      <c r="G209" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A210" s="43">
+        <f t="shared" si="148"/>
+        <v>45858</v>
+      </c>
+      <c r="B210" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C210" s="55">
+        <v>7</v>
+      </c>
+      <c r="D210" s="38">
+        <f t="shared" ref="D210:E210" si="218">E210*5%</f>
+        <v>616.73708824940604</v>
+      </c>
+      <c r="E210" s="39">
+        <f t="shared" si="218"/>
+        <v>12334.741764988119</v>
+      </c>
+      <c r="F210" s="37">
+        <f t="shared" ref="F210:F220" si="219">F209</f>
+        <v>246694.83529976237</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A211" s="43">
+        <f t="shared" si="146"/>
+        <v>45870</v>
+      </c>
+      <c r="B211" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C211" s="55">
+        <v>8</v>
+      </c>
+      <c r="F211" s="37">
+        <f t="shared" ref="F211" si="220">F210*POWER(1+0.0005,(A211-A209))+D210</f>
+        <v>251164.15970787566</v>
+      </c>
+      <c r="G211" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A212" s="43">
+        <f t="shared" si="148"/>
+        <v>45889</v>
+      </c>
+      <c r="B212" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C212" s="55">
+        <v>8</v>
+      </c>
+      <c r="D212" s="38">
+        <f t="shared" ref="D212:E212" si="221">E212*5%</f>
+        <v>627.91039926968915</v>
+      </c>
+      <c r="E212" s="39">
+        <f t="shared" si="221"/>
+        <v>12558.207985393783</v>
+      </c>
+      <c r="F212" s="37">
+        <f t="shared" ref="F212:F220" si="222">F211</f>
+        <v>251164.15970787566</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A213" s="43">
+        <f t="shared" si="146"/>
+        <v>45901</v>
+      </c>
+      <c r="B213" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C213" s="55">
+        <v>9</v>
+      </c>
+      <c r="F213" s="37">
+        <f t="shared" ref="F213" si="223">F212*POWER(1+0.0005,(A213-A211))+D212</f>
+        <v>255714.45403431205</v>
+      </c>
+      <c r="G213" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A214" s="43">
+        <f t="shared" si="148"/>
+        <v>45920</v>
+      </c>
+      <c r="B214" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C214" s="55">
+        <v>9</v>
+      </c>
+      <c r="D214" s="38">
+        <f t="shared" ref="D214:E214" si="224">E214*5%</f>
+        <v>639.28613508578019</v>
+      </c>
+      <c r="E214" s="39">
+        <f t="shared" si="224"/>
+        <v>12785.722701715604</v>
+      </c>
+      <c r="F214" s="37">
+        <f t="shared" ref="F214:F220" si="225">F213</f>
+        <v>255714.45403431205</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A215" s="43">
+        <f t="shared" si="146"/>
+        <v>45931</v>
+      </c>
+      <c r="B215" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C215" s="55">
+        <v>10</v>
+      </c>
+      <c r="F215" s="37">
+        <f t="shared" ref="F215" si="226">F214*POWER(1+0.0005,(A215-A213))+D214</f>
+        <v>260217.39614100597</v>
+      </c>
+      <c r="G215" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A216" s="43">
+        <f t="shared" si="148"/>
+        <v>45950</v>
+      </c>
+      <c r="B216" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C216" s="55">
+        <v>10</v>
+      </c>
+      <c r="D216" s="38">
+        <f t="shared" ref="D216:E216" si="227">E216*5%</f>
+        <v>650.54349035251505</v>
+      </c>
+      <c r="E216" s="39">
+        <f t="shared" si="227"/>
+        <v>13010.8698070503</v>
+      </c>
+      <c r="F216" s="37">
+        <f t="shared" ref="F216:F220" si="228">F215</f>
+        <v>260217.39614100597</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A217" s="43">
+        <f t="shared" si="146"/>
+        <v>45962</v>
+      </c>
+      <c r="B217" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C217" s="55">
+        <v>11</v>
+      </c>
+      <c r="F217" s="37">
+        <f t="shared" ref="F217" si="229">F216*POWER(1+0.0005,(A217-A215))+D216</f>
+        <v>264931.70626661321</v>
+      </c>
+      <c r="G217" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A218" s="43">
+        <f t="shared" si="148"/>
+        <v>45981</v>
+      </c>
+      <c r="B218" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C218" s="55">
+        <v>11</v>
+      </c>
+      <c r="D218" s="38">
+        <f t="shared" ref="D218:E218" si="230">E218*5%</f>
+        <v>662.32926566653305</v>
+      </c>
+      <c r="E218" s="39">
+        <f t="shared" si="230"/>
+        <v>13246.585313330661</v>
+      </c>
+      <c r="F218" s="37">
+        <f t="shared" ref="F218:F220" si="231">F217</f>
+        <v>264931.70626661321</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A219" s="43">
+        <f t="shared" si="146"/>
+        <v>45992</v>
+      </c>
+      <c r="B219" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C219" s="55">
+        <v>12</v>
+      </c>
+      <c r="F219" s="37">
+        <f t="shared" ref="F219" si="232">F218*POWER(1+0.0005,(A219-A217))+D218</f>
+        <v>269596.95735713677</v>
+      </c>
+      <c r="G219" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A220" s="43">
+        <f t="shared" si="148"/>
+        <v>46011</v>
+      </c>
+      <c r="B220" s="39">
+        <v>2025</v>
+      </c>
+      <c r="C220" s="55">
+        <v>12</v>
+      </c>
+      <c r="D220" s="38">
+        <f t="shared" ref="D220:E220" si="233">E220*5%</f>
+        <v>673.99239339284202</v>
+      </c>
+      <c r="E220" s="39">
+        <f t="shared" si="233"/>
+        <v>13479.847867856839</v>
+      </c>
+      <c r="F220" s="37">
+        <f t="shared" ref="F220" si="234">F219</f>
+        <v>269596.95735713677</v>
       </c>
     </row>
   </sheetData>
